--- a/data/raw/KOSPI_index.xlsx
+++ b/data/raw/KOSPI_index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lulum\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lulum\github\clustering-based-portfolio-analysis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EB53C06-EC7B-4224-893F-A6CED9F62261}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{79C1FE62-D18F-43FB-9FEC-19DC3F8C6D21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="13995" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,6 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,10 +621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B263"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264:XFD287"/>
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2653,94 +2649,6 @@
         <v>2467.4899999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="1">
-        <v>43131</v>
-      </c>
-      <c r="B253" s="2">
-        <v>2566.46</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="1">
-        <v>43159</v>
-      </c>
-      <c r="B254" s="2">
-        <v>2427.36</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
-        <v>43190</v>
-      </c>
-      <c r="B255" s="4">
-        <v>2445.85</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="1">
-        <v>43220</v>
-      </c>
-      <c r="B256" s="2">
-        <v>2515.38</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="1">
-        <v>43251</v>
-      </c>
-      <c r="B257" s="2">
-        <v>2423.0100000000002</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="1">
-        <v>43281</v>
-      </c>
-      <c r="B258" s="2">
-        <v>2326.13</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="1">
-        <v>43312</v>
-      </c>
-      <c r="B259" s="2">
-        <v>2295.2600000000002</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
-        <v>43343</v>
-      </c>
-      <c r="B260" s="4">
-        <v>2322.88</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="1">
-        <v>43373</v>
-      </c>
-      <c r="B261" s="2">
-        <v>2343.0700000000002</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="1">
-        <v>43404</v>
-      </c>
-      <c r="B262" s="2">
-        <v>2029.69</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="1">
-        <v>43418</v>
-      </c>
-      <c r="B263" s="2">
-        <v>2068.0500000000002</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2749,7 +2657,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId3" name="FnBtn1">
+        <control shapeId="1036" r:id="rId3" name="FnBtn2">
           <controlPr locked="0" defaultSize="0" print="0" autoLine="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -2769,12 +2677,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId3" name="FnBtn1"/>
+        <control shapeId="1036" r:id="rId3" name="FnBtn2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId5" name="FnBtn2">
+        <control shapeId="1025" r:id="rId5" name="FnBtn1">
           <controlPr locked="0" defaultSize="0" print="0" autoLine="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -2794,7 +2702,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId5" name="FnBtn2"/>
+        <control shapeId="1025" r:id="rId5" name="FnBtn1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
